--- a/EmotionRegulation/EmotionRegulationAsset/Results/NormalEvents.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/NormalEvents.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rec08a756b30b4f2f"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R8c33875109454e57"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -38,10 +38,10 @@
     <x:t xml:space="preserve"> DOMINANT PERSONALITY </x:t>
   </x:si>
   <x:si>
-    <x:t>Shame</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fly</x:t>
+    <x:t>Gloating</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BecomeRich</x:t>
   </x:si>
   <x:si>
     <x:t>None</x:t>
@@ -409,13 +409,13 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>-1.7793253660202026</x:v>
+        <x:v>0.8896626830101013</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>5.7290496826171875</x:v>
+        <x:v>2.8645248413085938</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>

--- a/EmotionRegulation/EmotionRegulationAsset/Results/NormalEvents.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/NormalEvents.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R8c33875109454e57"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rd66ffe8a6bec4f27"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <x:si>
     <x:t xml:space="preserve">MOOD     </x:t>
   </x:si>
@@ -38,13 +38,61 @@
     <x:t xml:space="preserve"> DOMINANT PERSONALITY </x:t>
   </x:si>
   <x:si>
+    <x:t>Distress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hello</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Conversation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discussion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Congrat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fired</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Profits</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Remorse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fly</x:t>
+  </x:si>
+  <x:si>
     <x:t>Gloating</x:t>
   </x:si>
   <x:si>
     <x:t>BecomeRich</x:t>
-  </x:si>
-  <x:si>
-    <x:t>None</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -375,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:H13"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -409,18 +457,205 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>0.8896626830101013</x:v>
+        <x:v>-1.4827710390090942</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>2.8645248413085938</x:v>
+        <x:v>4.774208068847656</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3">
+        <x:v>-0.974892795085907</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>1.5804238319396973</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>2.3942959308624268</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5">
+        <x:v>1.4531155824661255</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>4.6787238121032715</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>4.357959747314453</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7">
+        <x:v>0.5931084156036377</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7">
+        <x:v>1.9096832275390625</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8">
+        <x:v>-0.8437083959579468</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8">
+        <x:v>4.604310512542725</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E8" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9">
+        <x:v>-2.5697827339172363</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>5.588795185089111</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10">
+        <x:v>-4.637181282043457</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C10">
+        <x:v>6.751622676849365</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11">
+        <x:v>-2.624037742614746</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C11">
+        <x:v>6.31040096282959</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12">
+        <x:v>-4.6066741943359375</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C12">
+        <x:v>6.480711936950684</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13">
+        <x:v>-4.073937892913818</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>1.5449315309524536</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>

--- a/EmotionRegulation/EmotionRegulationAsset/Results/NormalEvents.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/NormalEvents.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rd66ffe8a6bec4f27"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rf348e52c33d64541"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t xml:space="preserve">MOOD     </x:t>
   </x:si>
@@ -38,61 +38,13 @@
     <x:t xml:space="preserve"> DOMINANT PERSONALITY </x:t>
   </x:si>
   <x:si>
-    <x:t>Distress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talk</x:t>
+    <x:t>Hate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fired</x:t>
   </x:si>
   <x:si>
     <x:t>None</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Love</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hello</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Conversation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hug</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Discussion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Congrat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bye</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fired</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Profits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Remorse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gloating</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BecomeRich</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -423,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:H13"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -457,205 +409,18 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>-1.4827710390090942</x:v>
+        <x:v>-1.6607036590576172</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>4.774208068847656</x:v>
+        <x:v>5.347113132476807</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3">
-      <x:c r="A3">
-        <x:v>-0.974892795085907</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3">
-        <x:v>1.5804238319396973</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4">
-      <x:c r="A4">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4">
-        <x:v>2.3942959308624268</x:v>
-      </x:c>
-      <x:c r="D4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5">
-      <x:c r="A5">
-        <x:v>1.4531155824661255</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5">
-        <x:v>4.6787238121032715</x:v>
-      </x:c>
-      <x:c r="D5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6">
-      <x:c r="A6">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C6">
-        <x:v>4.357959747314453</x:v>
-      </x:c>
-      <x:c r="D6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7">
-      <x:c r="A7">
-        <x:v>0.5931084156036377</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C7">
-        <x:v>1.9096832275390625</x:v>
-      </x:c>
-      <x:c r="D7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8">
-      <x:c r="A8">
-        <x:v>-0.8437083959579468</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C8">
-        <x:v>4.604310512542725</x:v>
-      </x:c>
-      <x:c r="D8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9">
-      <x:c r="A9">
-        <x:v>-2.5697827339172363</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C9">
-        <x:v>5.588795185089111</x:v>
-      </x:c>
-      <x:c r="D9" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E9" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10">
-      <x:c r="A10">
-        <x:v>-4.637181282043457</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C10">
-        <x:v>6.751622676849365</x:v>
-      </x:c>
-      <x:c r="D10" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E10" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11">
-      <x:c r="A11">
-        <x:v>-2.624037742614746</x:v>
-      </x:c>
-      <x:c r="B11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C11">
-        <x:v>6.31040096282959</x:v>
-      </x:c>
-      <x:c r="D11" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12">
-      <x:c r="A12">
-        <x:v>-4.6066741943359375</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C12">
-        <x:v>6.480711936950684</x:v>
-      </x:c>
-      <x:c r="D12" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13">
-      <x:c r="A13">
-        <x:v>-4.073937892913818</x:v>
-      </x:c>
-      <x:c r="B13" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C13">
-        <x:v>1.5449315309524536</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E13" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>

--- a/EmotionRegulation/EmotionRegulationAsset/Results/NormalEvents.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/NormalEvents.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rf348e52c33d64541"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R26b8cb6969e24ac8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -38,10 +38,10 @@
     <x:t xml:space="preserve"> DOMINANT PERSONALITY </x:t>
   </x:si>
   <x:si>
-    <x:t>Hate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fired</x:t>
+    <x:t>Disappointment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BecomeRich</x:t>
   </x:si>
   <x:si>
     <x:t>None</x:t>
@@ -409,13 +409,13 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>-1.6607036590576172</x:v>
+        <x:v>-1.1862168312072754</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>5.347113132476807</x:v>
+        <x:v>3.819366455078125</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>
